--- a/data/trans_dic/P23_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P23_R-Provincia-trans_dic.xlsx
@@ -549,32 +549,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>33,08%</t>
+          <t>41,52%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>23,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>22,57%</t>
+          <t>27,72%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>20,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>27,87%</t>
+          <t>34,78%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>21,88%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>27,92; 39,37</t>
+          <t>34,79; 47,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>18,15; 29,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>18,02; 27,89</t>
+          <t>22,15; 33,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>17,26; 24,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>24,32; 31,97</t>
+          <t>30,28; 38,89</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>18,5; 25,23</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -681,32 +681,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>38,69%</t>
+          <t>38,92%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>22,61%</t>
+          <t>41,17%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>26,04%</t>
+          <t>23,55%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>16,9%</t>
+          <t>28,87%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>32,25%</t>
+          <t>31,14%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>19,66%</t>
+          <t>34,91%</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>34,58; 43,14</t>
+          <t>34,4; 43,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>18,09; 27,72</t>
+          <t>36,8; 46,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>22,43; 29,81</t>
+          <t>19,75; 27,92</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>13,88; 20,1</t>
+          <t>24,49; 32,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>29,26; 35,29</t>
+          <t>28,14; 33,94</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,02; 22,47</t>
+          <t>31,37; 37,77</t>
         </is>
       </c>
     </row>
@@ -761,32 +761,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>27,93%</t>
+          <t>46,37%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>22,41%</t>
+          <t>39,2%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>22,33%</t>
+          <t>28,29%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>16,94%</t>
+          <t>25,71%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>25,06%</t>
+          <t>37,1%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>19,48%</t>
+          <t>32,3%</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>23,03; 32,67</t>
+          <t>40,59; 52,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>18,22; 27,28</t>
+          <t>33,89; 44,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>18,03; 27,42</t>
+          <t>23,65; 33,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>13,78; 20,12</t>
+          <t>21,0; 30,81</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>21,81; 28,43</t>
+          <t>33,5; 41,17</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>17,0; 22,42</t>
+          <t>28,77; 36,18</t>
         </is>
       </c>
     </row>
@@ -841,32 +841,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>35,35%</t>
+          <t>47,53%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>23,44%</t>
+          <t>40,14%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>24,76%</t>
+          <t>28,33%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>16,91%</t>
+          <t>29,86%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>29,94%</t>
+          <t>37,76%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>19,71%</t>
+          <t>34,97%</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>30,78; 40,3</t>
+          <t>42,59; 53,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,85; 30,37</t>
+          <t>36,33; 44,17</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>20,54; 29,65</t>
+          <t>23,54; 32,96</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13,31; 21,72</t>
+          <t>26,29; 33,42</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>26,37; 33,2</t>
+          <t>34,31; 41,34</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,42; 23,58</t>
+          <t>32,34; 37,58</t>
         </is>
       </c>
     </row>
@@ -921,32 +921,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>37,81%</t>
+          <t>41,48%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>17,95%</t>
+          <t>42,99%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>25,91%</t>
+          <t>28,66%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>12,26%</t>
+          <t>29,8%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>31,76%</t>
+          <t>35,0%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>14,87%</t>
+          <t>36,29%</t>
         </is>
       </c>
     </row>
@@ -959,32 +959,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>31,65; 44,52</t>
+          <t>34,21; 49,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>13,76; 22,57</t>
+          <t>36,07; 50,27</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>21,06; 32,06</t>
+          <t>22,52; 35,4</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9,09; 15,71</t>
+          <t>23,52; 36,49</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>27,75; 36,18</t>
+          <t>30,15; 39,63</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>12,48; 17,79</t>
+          <t>31,44; 40,47</t>
         </is>
       </c>
     </row>
@@ -1001,32 +1001,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>32,05%</t>
+          <t>46,28%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>25,23%</t>
+          <t>30,56%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>23,81%</t>
+          <t>23,37%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>17,4%</t>
+          <t>23,88%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>27,85%</t>
+          <t>34,67%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>21,33%</t>
+          <t>27,19%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1039,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>26,0; 37,28</t>
+          <t>40,27; 52,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>20,87; 30,65</t>
+          <t>25,08; 36,37</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>19,01; 29,54</t>
+          <t>19,01; 28,62</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>13,92; 21,76</t>
+          <t>19,13; 29,03</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>24,22; 32,18</t>
+          <t>30,37; 38,3</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>18,23; 24,58</t>
+          <t>23,79; 31,08</t>
         </is>
       </c>
     </row>
@@ -1081,32 +1081,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>27,6%</t>
+          <t>38,21%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>22,68%</t>
+          <t>42,28%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>21,73%</t>
+          <t>25,28%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>17,14%</t>
+          <t>28,04%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>24,59%</t>
+          <t>31,62%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>19,57%</t>
+          <t>34,99%</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1119,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>23,85; 31,22</t>
+          <t>34,33; 42,29</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>19,02; 26,79</t>
+          <t>38,37; 46,12</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>18,72; 24,96</t>
+          <t>22,2; 28,91</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>11,53; 21,08</t>
+          <t>24,89; 31,8</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>22,17; 27,06</t>
+          <t>29,16; 34,33</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>14,42; 22,27</t>
+          <t>32,47; 37,72</t>
         </is>
       </c>
     </row>
@@ -1161,32 +1161,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>30,09%</t>
+          <t>42,68%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>25,1%</t>
+          <t>38,06%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>24,77%</t>
+          <t>23,79%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>15,39%</t>
+          <t>25,38%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>27,35%</t>
+          <t>32,99%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>20,22%</t>
+          <t>31,54%</t>
         </is>
       </c>
     </row>
@@ -1199,32 +1199,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>26,92; 33,52</t>
+          <t>39,1; 46,69</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>19,86; 28,76</t>
+          <t>34,68; 42,08</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>21,83; 28,33</t>
+          <t>20,89; 27,01</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>12,93; 17,76</t>
+          <t>22,45; 29,11</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>25,08; 29,75</t>
+          <t>30,58; 35,26</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>18,01; 22,68</t>
+          <t>29,06; 33,92</t>
         </is>
       </c>
     </row>
@@ -1241,32 +1241,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>32,14%</t>
+          <t>42,29%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>23,3%</t>
+          <t>39,55%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>23,95%</t>
+          <t>25,55%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>16,64%</t>
+          <t>27,45%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>27,96%</t>
+          <t>33,79%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>19,77%</t>
+          <t>33,39%</t>
         </is>
       </c>
     </row>
@@ -1279,32 +1279,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>30,75; 33,81</t>
+          <t>40,34; 43,77</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>21,54; 25,15</t>
+          <t>37,73; 41,11</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>22,51; 25,57</t>
+          <t>24,12; 27,05</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>14,79; 17,92</t>
+          <t>25,87; 28,91</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>26,84; 29,05</t>
+          <t>32,55; 35,01</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>18,41; 20,78</t>
+          <t>32,14; 34,54</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P23_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P23_R-Provincia-trans_dic.xlsx
@@ -639,7 +639,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>34,79; 47,41</t>
+          <t>35,12; 47,45</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>22,15; 33,55</t>
+          <t>22,09; 33,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>30,28; 38,89</t>
+          <t>30,74; 39,14</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>34,4; 43,36</t>
+          <t>34,63; 43,6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>36,8; 46,13</t>
+          <t>36,46; 45,71</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>19,75; 27,92</t>
+          <t>19,98; 27,4</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>24,49; 32,92</t>
+          <t>25,07; 33,39</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>28,14; 33,94</t>
+          <t>28,21; 34,45</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>31,37; 37,77</t>
+          <t>32,09; 38,34</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>40,59; 52,24</t>
+          <t>40,68; 51,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>33,89; 44,4</t>
+          <t>33,7; 44,61</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>23,65; 33,45</t>
+          <t>23,66; 33,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>21,0; 30,81</t>
+          <t>21,44; 31,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>33,5; 41,17</t>
+          <t>33,39; 40,62</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>28,77; 36,18</t>
+          <t>28,75; 35,86</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>42,59; 53,02</t>
+          <t>42,49; 52,96</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>36,33; 44,17</t>
+          <t>36,56; 44,53</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>23,54; 32,96</t>
+          <t>24,2; 33,08</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>26,29; 33,42</t>
+          <t>26,49; 33,68</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>34,31; 41,34</t>
+          <t>34,42; 41,1</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>32,34; 37,58</t>
+          <t>32,37; 37,71</t>
         </is>
       </c>
     </row>
@@ -959,32 +959,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>34,21; 49,06</t>
+          <t>35,14; 48,98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>36,07; 50,27</t>
+          <t>36,31; 50,03</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>22,52; 35,4</t>
+          <t>22,62; 35,39</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>23,52; 36,49</t>
+          <t>23,84; 36,83</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>30,15; 39,63</t>
+          <t>30,52; 40,04</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>31,44; 40,47</t>
+          <t>31,47; 41,02</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1039,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>40,27; 52,0</t>
+          <t>40,62; 52,45</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>25,08; 36,37</t>
+          <t>24,86; 36,64</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>19,01; 28,62</t>
+          <t>18,37; 28,53</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>19,13; 29,03</t>
+          <t>18,94; 29,31</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>30,37; 38,3</t>
+          <t>30,86; 39,01</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>23,79; 31,08</t>
+          <t>23,17; 30,77</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1119,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>34,33; 42,29</t>
+          <t>34,27; 42,32</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>38,37; 46,12</t>
+          <t>38,25; 46,43</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>22,2; 28,91</t>
+          <t>21,83; 28,63</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>24,89; 31,8</t>
+          <t>24,69; 31,7</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>29,16; 34,33</t>
+          <t>29,05; 34,11</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>32,47; 37,72</t>
+          <t>32,47; 37,45</t>
         </is>
       </c>
     </row>
@@ -1199,32 +1199,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>39,1; 46,69</t>
+          <t>39,0; 46,16</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>34,68; 42,08</t>
+          <t>34,41; 41,56</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>20,89; 27,01</t>
+          <t>20,61; 26,93</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>22,45; 29,11</t>
+          <t>22,39; 28,72</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>30,58; 35,26</t>
+          <t>30,32; 35,23</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>29,06; 33,92</t>
+          <t>29,21; 34,01</t>
         </is>
       </c>
     </row>
@@ -1279,32 +1279,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>40,34; 43,77</t>
+          <t>40,56; 43,96</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>37,73; 41,11</t>
+          <t>37,85; 41,37</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>24,12; 27,05</t>
+          <t>24,15; 27,09</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>25,87; 28,91</t>
+          <t>25,91; 28,95</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>32,55; 35,01</t>
+          <t>32,66; 35,01</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>32,14; 34,54</t>
+          <t>32,19; 34,56</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P23_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P23_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -639,7 +639,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>35,12; 47,45</t>
+          <t>35,09; 47,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>22,09; 33,52</t>
+          <t>22,29; 34,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>30,74; 39,14</t>
+          <t>30,91; 39,03</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>34,63; 43,6</t>
+          <t>34,37; 43,67</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>36,46; 45,71</t>
+          <t>37,11; 46,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>19,98; 27,4</t>
+          <t>20,05; 27,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>25,07; 33,39</t>
+          <t>24,85; 32,94</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>28,21; 34,45</t>
+          <t>28,37; 34,34</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>32,09; 38,34</t>
+          <t>31,2; 37,72</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>40,68; 51,74</t>
+          <t>40,72; 51,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>33,7; 44,61</t>
+          <t>33,6; 44,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>23,66; 33,11</t>
+          <t>23,54; 33,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>21,44; 31,19</t>
+          <t>20,56; 30,44</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>33,39; 40,62</t>
+          <t>33,48; 40,92</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>28,75; 35,86</t>
+          <t>28,5; 36,16</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>42,49; 52,96</t>
+          <t>42,24; 52,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>36,56; 44,53</t>
+          <t>36,42; 43,87</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>24,2; 33,08</t>
+          <t>23,93; 32,52</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>26,49; 33,68</t>
+          <t>26,49; 33,59</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>34,42; 41,1</t>
+          <t>34,41; 41,29</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>32,37; 37,71</t>
+          <t>32,3; 37,38</t>
         </is>
       </c>
     </row>
@@ -959,32 +959,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>35,14; 48,98</t>
+          <t>34,96; 48,58</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>36,31; 50,03</t>
+          <t>35,56; 50,75</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>22,62; 35,39</t>
+          <t>22,59; 36,05</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>23,84; 36,83</t>
+          <t>23,82; 36,24</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>30,52; 40,04</t>
+          <t>29,82; 39,83</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>31,47; 41,02</t>
+          <t>31,65; 41,45</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1039,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>40,62; 52,45</t>
+          <t>40,83; 52,22</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>24,86; 36,64</t>
+          <t>24,91; 36,32</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>18,37; 28,53</t>
+          <t>18,77; 28,48</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>18,94; 29,31</t>
+          <t>19,22; 28,78</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>30,86; 39,01</t>
+          <t>30,99; 38,59</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>23,17; 30,77</t>
+          <t>23,32; 31,02</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1119,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>34,27; 42,32</t>
+          <t>34,22; 42,13</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>38,25; 46,43</t>
+          <t>38,42; 46,75</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>21,83; 28,63</t>
+          <t>21,85; 28,97</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>24,69; 31,7</t>
+          <t>24,76; 31,66</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>29,05; 34,11</t>
+          <t>29,09; 34,27</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>32,47; 37,45</t>
+          <t>32,38; 37,67</t>
         </is>
       </c>
     </row>
@@ -1199,32 +1199,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>39,0; 46,16</t>
+          <t>39,21; 46,43</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>34,41; 41,56</t>
+          <t>34,62; 41,62</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>20,61; 26,93</t>
+          <t>20,84; 26,84</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>22,39; 28,72</t>
+          <t>22,1; 28,8</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>30,32; 35,23</t>
+          <t>30,43; 35,35</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>29,21; 34,01</t>
+          <t>29,25; 34,15</t>
         </is>
       </c>
     </row>
@@ -1279,32 +1279,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>40,56; 43,96</t>
+          <t>40,64; 44,04</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>37,85; 41,37</t>
+          <t>37,85; 41,3</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>24,15; 27,09</t>
+          <t>24,13; 27,2</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>25,91; 28,95</t>
+          <t>25,88; 29,07</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>32,66; 35,01</t>
+          <t>32,66; 34,94</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>32,19; 34,56</t>
+          <t>32,27; 34,54</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P23_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P23_R-Provincia-trans_dic.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,12 +523,15 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que fuma diariamente</t>
+          <t>Población que fuma diariamente (Tabaco/Marihuana) (2007/2012/2016)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -606,27 +637,42 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,31%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>36,74%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>27,72%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>34,09%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>25,53%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
           <t>34,78%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>40,28%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>31,18%</t>
         </is>
       </c>
     </row>
@@ -644,27 +690,42 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>40,43; 52,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
+          <t>31,53; 43,58</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>22,29; 34,32</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>28,29; 40,26</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>20,55; 30,94</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
           <t>30,91; 39,03</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>36,23; 44,66</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>27,49; 35,34</t>
         </is>
       </c>
     </row>
@@ -691,22 +752,37 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>41,88%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>23,55%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>28,87%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>27,22%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>31,14%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>34,91%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>34,41%</t>
         </is>
       </c>
     </row>
@@ -729,22 +805,37 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
+          <t>37,52; 46,39</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>20,05; 27,52</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>24,85; 32,94</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>23,5; 31,06</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>28,37; 34,34</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
+      <c r="J7" s="2" t="inlineStr">
         <is>
           <t>31,2; 37,72</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>31,37; 37,43</t>
         </is>
       </c>
     </row>
@@ -771,22 +862,37 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
+          <t>30,24%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>28,29%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>25,71%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>24,2%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>37,1%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>32,3%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>27,14%</t>
         </is>
       </c>
     </row>
@@ -809,22 +915,37 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
+          <t>25,36; 35,1</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>23,54; 33,31</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
+      <c r="G9" s="2" t="inlineStr">
         <is>
           <t>20,56; 30,44</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>19,72; 29,19</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
         <is>
           <t>33,48; 40,92</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
+      <c r="J9" s="2" t="inlineStr">
         <is>
           <t>28,5; 36,16</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>23,75; 30,64</t>
         </is>
       </c>
     </row>
@@ -846,27 +967,42 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>40,14%</t>
+          <t>35,28%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>38,44%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>28,33%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>29,86%</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>26,73%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>28,18%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
           <t>37,76%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>34,97%</t>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>30,92%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>33,2%</t>
         </is>
       </c>
     </row>
@@ -884,27 +1020,42 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>36,42; 43,87</t>
+          <t>30,17; 40,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
+          <t>33,49; 43,39</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>23,93; 32,52</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>26,49; 33,59</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>22,65; 32,23</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>23,83; 33,17</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
           <t>34,41; 41,29</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>32,3; 37,38</t>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>27,82; 34,41</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>29,62; 36,56</t>
         </is>
       </c>
     </row>
@@ -931,22 +1082,37 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>40,66%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>28,66%</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>29,8%</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>25,91%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>35,0%</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
+      <c r="J12" s="2" t="inlineStr">
         <is>
           <t>36,29%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>33,16%</t>
         </is>
       </c>
     </row>
@@ -969,22 +1135,37 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
+          <t>34,09; 47,11</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>22,59; 36,05</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
+      <c r="G13" s="2" t="inlineStr">
         <is>
           <t>23,82; 36,24</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>21,06; 32,06</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
         <is>
           <t>29,82; 39,83</t>
         </is>
       </c>
-      <c r="H13" s="2" t="inlineStr">
+      <c r="J13" s="2" t="inlineStr">
         <is>
           <t>31,65; 41,45</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>28,97; 37,6</t>
         </is>
       </c>
     </row>
@@ -1011,22 +1192,37 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>33,9%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>23,37%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>23,88%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>26,75%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
         <is>
           <t>34,67%</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
+      <c r="J14" s="2" t="inlineStr">
         <is>
           <t>27,19%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>30,26%</t>
         </is>
       </c>
     </row>
@@ -1049,22 +1245,37 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>27,86; 39,5</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>18,77; 28,48</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
+      <c r="G15" s="2" t="inlineStr">
         <is>
           <t>19,22; 28,78</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>21,47; 32,47</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
         <is>
           <t>30,99; 38,59</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
+      <c r="J15" s="2" t="inlineStr">
         <is>
           <t>23,32; 31,02</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>26,33; 34,53</t>
         </is>
       </c>
     </row>
@@ -1091,22 +1302,37 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
+          <t>30,83%</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>25,28%</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>28,04%</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>25,36%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
         <is>
           <t>31,62%</t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr">
+      <c r="J16" s="2" t="inlineStr">
         <is>
           <t>34,99%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>28,03%</t>
         </is>
       </c>
     </row>
@@ -1129,22 +1355,37 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
+          <t>27,04; 34,58</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
           <t>21,85; 28,97</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
+      <c r="G17" s="2" t="inlineStr">
         <is>
           <t>24,76; 31,66</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>22,31; 28,79</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
         <is>
           <t>29,09; 34,27</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="J17" s="2" t="inlineStr">
         <is>
           <t>32,38; 37,67</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>25,53; 30,76</t>
         </is>
       </c>
     </row>
@@ -1171,22 +1412,37 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
+          <t>32,88%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>23,79%</t>
         </is>
       </c>
-      <c r="F18" s="2" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>25,38%</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>25,94%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
         <is>
           <t>32,99%</t>
         </is>
       </c>
-      <c r="H18" s="2" t="inlineStr">
+      <c r="J18" s="2" t="inlineStr">
         <is>
           <t>31,54%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>29,31%</t>
         </is>
       </c>
     </row>
@@ -1209,22 +1465,37 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
+          <t>29,53; 36,66</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
           <t>20,84; 26,84</t>
         </is>
       </c>
-      <c r="F19" s="2" t="inlineStr">
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>22,1; 28,8</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>22,9; 29,44</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>30,43; 35,35</t>
         </is>
       </c>
-      <c r="H19" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
         <is>
           <t>29,25; 34,15</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>27,07; 31,85</t>
         </is>
       </c>
     </row>
@@ -1251,22 +1522,37 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
+          <t>35,07%</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
           <t>25,55%</t>
         </is>
       </c>
-      <c r="F20" s="2" t="inlineStr">
+      <c r="G20" s="2" t="inlineStr">
         <is>
           <t>27,45%</t>
         </is>
       </c>
-      <c r="G20" s="2" t="inlineStr">
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>26,12%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
         <is>
           <t>33,79%</t>
         </is>
       </c>
-      <c r="H20" s="2" t="inlineStr">
+      <c r="J20" s="2" t="inlineStr">
         <is>
           <t>33,39%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>30,5%</t>
         </is>
       </c>
     </row>
@@ -1289,22 +1575,37 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
+          <t>33,65; 36,91</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
           <t>24,13; 27,2</t>
         </is>
       </c>
-      <c r="F21" s="2" t="inlineStr">
+      <c r="G21" s="2" t="inlineStr">
         <is>
           <t>25,88; 29,07</t>
         </is>
       </c>
-      <c r="G21" s="2" t="inlineStr">
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>24,63; 27,82</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
         <is>
           <t>32,66; 34,94</t>
         </is>
       </c>
-      <c r="H21" s="2" t="inlineStr">
+      <c r="J21" s="2" t="inlineStr">
         <is>
           <t>32,27; 34,54</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>29,35; 31,64</t>
         </is>
       </c>
     </row>
@@ -1317,12 +1618,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>

--- a/data/trans_dic/P23_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P23_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -531,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que fuma diariamente (Tabaco/Marihuana) (2007/2012/2016)</t>
+          <t>Población que fuma diariamente tabaco y/o marihuana/hachís</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -622,7 +623,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,54 +686,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>35,09; 47,47</t>
+          <t>35,64; 48,09</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>40,43; 52,2</t>
+          <t>40,32; 52,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>31,53; 43,58</t>
+          <t>30,36; 42,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>22,29; 34,32</t>
+          <t>22,15; 33,71</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>28,29; 40,26</t>
+          <t>28,46; 41,13</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>20,55; 30,94</t>
+          <t>21,08; 31,66</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>30,91; 39,03</t>
+          <t>30,86; 39,23</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>36,23; 44,66</t>
+          <t>36,08; 44,65</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>27,49; 35,34</t>
+          <t>27,46; 34,97</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -795,54 +796,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>34,37; 43,67</t>
+          <t>34,6; 43,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>37,11; 46,56</t>
+          <t>37,22; 46,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>37,52; 46,39</t>
+          <t>37,51; 46,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>20,05; 27,52</t>
+          <t>20,12; 27,56</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>24,85; 32,94</t>
+          <t>24,85; 33,14</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>23,5; 31,06</t>
+          <t>23,29; 31,68</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>28,37; 34,34</t>
+          <t>28,12; 34,23</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>31,2; 37,72</t>
+          <t>31,99; 38,47</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>31,37; 37,43</t>
+          <t>31,46; 37,77</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>40,72; 51,94</t>
+          <t>41,15; 52,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>33,6; 44,48</t>
+          <t>33,94; 44,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>25,36; 35,1</t>
+          <t>25,3; 35,14</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>23,54; 33,31</t>
+          <t>23,88; 33,7</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>20,56; 30,44</t>
+          <t>21,27; 31,3</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>19,72; 29,19</t>
+          <t>20,01; 29,41</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>33,48; 40,92</t>
+          <t>33,17; 40,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>28,5; 36,16</t>
+          <t>28,44; 35,95</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>23,75; 30,64</t>
+          <t>23,78; 30,49</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>42,24; 52,73</t>
+          <t>42,53; 53,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>30,17; 40,07</t>
+          <t>30,01; 40,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>33,49; 43,39</t>
+          <t>33,63; 43,91</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>23,93; 32,52</t>
+          <t>23,8; 32,93</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>22,65; 32,23</t>
+          <t>22,45; 31,65</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>23,83; 33,17</t>
+          <t>23,33; 33,23</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>34,41; 41,29</t>
+          <t>34,44; 41,48</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>27,82; 34,41</t>
+          <t>27,8; 34,67</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>29,62; 36,56</t>
+          <t>29,76; 36,88</t>
         </is>
       </c>
     </row>
@@ -1125,54 +1126,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>34,96; 48,58</t>
+          <t>33,89; 48,2</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>35,56; 50,75</t>
+          <t>36,22; 50,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>34,09; 47,11</t>
+          <t>34,2; 48,27</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>22,59; 36,05</t>
+          <t>22,9; 35,69</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>23,82; 36,24</t>
+          <t>23,74; 36,85</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>21,06; 32,06</t>
+          <t>20,61; 32,33</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>29,82; 39,83</t>
+          <t>30,36; 40,05</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>31,65; 41,45</t>
+          <t>32,08; 41,67</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>28,97; 37,6</t>
+          <t>29,02; 37,99</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1235,54 +1236,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>40,83; 52,22</t>
+          <t>40,76; 53,16</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>24,91; 36,32</t>
+          <t>25,18; 36,86</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>27,86; 39,5</t>
+          <t>28,38; 40,25</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>18,77; 28,48</t>
+          <t>18,88; 28,76</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>19,22; 28,78</t>
+          <t>19,24; 29,55</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>21,47; 32,47</t>
+          <t>21,38; 31,89</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>30,99; 38,59</t>
+          <t>30,85; 38,76</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>23,32; 31,02</t>
+          <t>23,61; 30,83</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>26,33; 34,53</t>
+          <t>26,47; 34,2</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>34,22; 42,13</t>
+          <t>34,4; 41,95</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>38,42; 46,75</t>
+          <t>38,32; 46,21</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>27,04; 34,58</t>
+          <t>27,1; 34,44</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>21,85; 28,97</t>
+          <t>21,84; 28,47</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>24,76; 31,66</t>
+          <t>24,74; 32,07</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>22,31; 28,79</t>
+          <t>21,96; 28,98</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>29,09; 34,27</t>
+          <t>29,05; 34,24</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>32,38; 37,67</t>
+          <t>32,4; 37,84</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>25,53; 30,76</t>
+          <t>25,5; 30,68</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>39,21; 46,43</t>
+          <t>39,18; 46,27</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>34,62; 41,62</t>
+          <t>34,59; 41,68</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>29,53; 36,66</t>
+          <t>29,49; 36,71</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>20,84; 26,84</t>
+          <t>20,65; 27,14</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>22,1; 28,8</t>
+          <t>22,51; 28,73</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>22,9; 29,44</t>
+          <t>22,93; 29,23</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>30,43; 35,35</t>
+          <t>30,52; 35,39</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>29,25; 34,15</t>
+          <t>29,31; 34,03</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>27,07; 31,85</t>
+          <t>27,2; 31,9</t>
         </is>
       </c>
     </row>
@@ -1565,47 +1566,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>40,64; 44,04</t>
+          <t>40,46; 44,04</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>37,85; 41,3</t>
+          <t>37,86; 41,33</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>33,65; 36,91</t>
+          <t>33,41; 36,82</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>24,13; 27,2</t>
+          <t>24,11; 27,19</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>25,88; 29,07</t>
+          <t>25,88; 28,93</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>24,63; 27,82</t>
+          <t>24,68; 27,64</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>32,66; 34,94</t>
+          <t>32,61; 34,98</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>32,27; 34,54</t>
+          <t>32,16; 34,63</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>29,35; 31,64</t>
+          <t>29,29; 31,62</t>
         </is>
       </c>
     </row>
@@ -1634,4 +1635,1619 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que fuma diariamente tabaco y/o marihuana/hachís</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>113358</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>136480</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>107914</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>72312</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>97931</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>73714</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>185669</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>234411</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>181627</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>97310; 131292</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>118851; 154504</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>89188; 124119</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>57785; 87924</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>81742; 118134</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>60864; 91416</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>164736; 209448</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>209983; 259882</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>159955; 203688</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>296</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>331</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>191486</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>208104</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>210096</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>118656</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>151218</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>141801</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>310143</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>359323</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>351897</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>170232; 215299</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>188150; 233188</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>188202; 234075</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>101390; 138880</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>130167; 173579</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>121304; 165004</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>280057; 340943</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>329260; 395929</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>321679; 386255</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>147839</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>127037</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>96331</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>94889</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>87433</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>81403</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>242728</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>214471</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>177734</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>131192; 166810</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>109970; 144279</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>80584; 111956</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>80097; 113030</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>72333; 106431</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>67302; 98919</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>217039; 267638</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>188874; 238707</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>155752; 199656</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>170487</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>131927</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>142205</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>105219</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>103984</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>108757</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>275706</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>235910</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>250962</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>152527; 190305</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>112214; 151987</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>124411; 162451</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>88395; 122324</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>87304; 123086</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>90068; 128282</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>251443; 302825</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>212110; 264525</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>224958; 278803</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>84329</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>91399</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>85886</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>59526</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>65439</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>56643</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>143855</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>156839</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>142529</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>68899; 97989</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>77011; 107723</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>72236; 101956</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>47563; 74107</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>52121; 80921</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>45045; 70679</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>124773; 164600</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>138651; 180083</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>124749; 163283</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>125328</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>83740</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>89201</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>65007</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>66879</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>73058</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>190335</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>150619</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>162259</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>110384; 143950</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>68981; 100978</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>74686; 105899</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>52515; 79992</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>53888; 82745</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>58397; 87098</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>169337; 212765</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>130824; 170817</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>141938; 183393</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>388</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>441</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>341</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>234976</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>280194</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>202092</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>161353</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>194550</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>174812</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>396329</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>474744</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>376904</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>211567; 258034</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>253972; 306263</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>177639; 225740</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>139384; 181712</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>171643; 222521</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>151378; 199805</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>364088; 429141</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>439566; 513292</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>342875; 412632</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>307</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>274</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>486</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>464</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>445</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>317478</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>296154</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>256010</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>186368</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>208836</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>214288</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>503845</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>504990</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>470298</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>291437; 344170</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>269138; 324280</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>229606; 285832</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>161761; 212613</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>185211; 236367</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>189432; 241509</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>466065; 540526</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>469305; 544732</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>436427; 511861</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>1349</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>1270</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>1107</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>895</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>2194</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>2168</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>1385281</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>1355036</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>1189733</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>863330</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>976270</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>924476</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>2248611</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>2331306</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>2114209</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>1325414; 1442511</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>1296941; 1415781</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>1133536; 1249039</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>814610; 918767</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>920492; 1029014</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>873361; 978159</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>2170312; 2328069</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>2245409; 2417827</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>2029989; 2191972</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>